--- a/Mod_Korean/Lang/KR/Data/chara_talk.xlsx
+++ b/Mod_Korean/Lang/KR/Data/chara_talk.xlsx
@@ -183,12 +183,12 @@
       <t xml:space="preserve">Oh my!
 Splendid!
 Hug me!
-Behold!
+Look at that!
 Wow!
 A hero!
 Please sign for me!
 Incredible!
-Phew!
+Woo hoo!
 Hurray.</t>
     </r>
   </si>
@@ -2304,9 +2304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2384280</xdr:colOff>
+      <xdr:colOff>2383920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2316,7 +2316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50988960" cy="132480"/>
+          <a:ext cx="50988600" cy="132120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2349,9 +2349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>523800</xdr:colOff>
+      <xdr:colOff>523440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2361,7 +2361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55516680" cy="36191520"/>
+          <a:ext cx="55516320" cy="36191160"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -2499,11 +2499,11 @@
   <dimension ref="A1:CM116"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AV116" sqref="AV116"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
